--- a/src/App/Reports/Payroll_Summary.xlsx
+++ b/src/App/Reports/Payroll_Summary.xlsx
@@ -921,7 +921,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1040,8 +1040,7 @@
 Page &amp;P/&amp;N&amp;C&amp;"Calibri,Bold"&amp;12MEGABYTE COLLEGE, INC.
 &amp;"Calibri,Regular"&amp;10Floridablanca, Pampanga
 &amp;14PAYROLL SUMMARY&amp;"Calibri,Bold"&amp;12
-&amp;"Calibri,Italic"&amp;11%Title%&amp;9
-%Title2%</oddHeader>
+&amp;"Calibri,Italic"&amp;11%Title%</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/App/Reports/Payroll_Summary.xlsx
+++ b/src/App/Reports/Payroll_Summary.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Payroll!$2:$2</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name of Employee</t>
   </si>
@@ -69,6 +70,51 @@
   </si>
   <si>
     <t>Withholding Tax</t>
+  </si>
+  <si>
+    <t>Absences &amp; Others</t>
+  </si>
+  <si>
+    <t>Megabyte College, Inc.</t>
+  </si>
+  <si>
+    <t>Floridablanca, Pampanga</t>
+  </si>
+  <si>
+    <t>Position: Current Position</t>
+  </si>
+  <si>
+    <t>Salary Grade: 12 - 1</t>
+  </si>
+  <si>
+    <t>P A Y   S L I P</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>NAME OF EMPLOYEE</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Net Pay:</t>
+  </si>
+  <si>
+    <t>Tax Code:</t>
+  </si>
+  <si>
+    <t>Monthly Salary</t>
+  </si>
+  <si>
+    <t>Total Deductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -78,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,8 +266,47 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +423,14 @@
         <fgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -460,6 +551,94 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -511,7 +690,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -568,6 +747,57 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="28" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="28" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="28" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="24" borderId="12" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -918,11 +1148,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -939,12 +1167,14 @@
     <col min="11" max="11" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="17" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="18" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.42578125" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="17" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="19" customWidth="1"/>
+    <col min="19" max="20" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="20" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="1"/>
@@ -964,9 +1194,10 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="7"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -1011,14 +1242,17 @@
         <v>3</v>
       </c>
       <c r="R2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -1026,6 +1260,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1034,7 +1269,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="1.6" bottom="0.4" header="0.3" footer="0.5"/>
-  <pageSetup scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;8Run Date: %Date%
 Page &amp;P/&amp;N&amp;C&amp;"Calibri,Bold"&amp;12MEGABYTE COLLEGE, INC.
@@ -1043,4 +1278,221 @@
 &amp;"Calibri,Italic"&amp;11%Title%</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="3" style="25" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" s="51" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E23" s="41"/>
+    </row>
+    <row r="25" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="2:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="5:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="5:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="5:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="5:5" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E36" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>